--- a/books/图书清单.xlsx
+++ b/books/图书清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26925" windowHeight="9390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="互联网" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>分类</t>
   </si>
@@ -61,6 +61,184 @@
   </si>
   <si>
     <t>《深入理解计算机系统》</t>
+  </si>
+  <si>
+    <t>操作系统知识</t>
+  </si>
+  <si>
+    <t>操作系统管理
+操作系统基本原理
+命令行的使用</t>
+  </si>
+  <si>
+    <t>《30天自制操作系统》</t>
+  </si>
+  <si>
+    <t>《Linux就该这么学》</t>
+  </si>
+  <si>
+    <t>PDF epub mobi</t>
+  </si>
+  <si>
+    <t>《Linux命令行与shell脚本编程大全》</t>
+  </si>
+  <si>
+    <t>PDF epub mobi azw3</t>
+  </si>
+  <si>
+    <t>《Linux Shell脚本攻略》</t>
+  </si>
+  <si>
+    <t>《Linux内核设计的艺术：图解Linux操作系统结构设计与实现原理》</t>
+  </si>
+  <si>
+    <t>网络知识</t>
+  </si>
+  <si>
+    <t>网络连接
+网络协议</t>
+  </si>
+  <si>
+    <t>《网络是怎样连接的》</t>
+  </si>
+  <si>
+    <t>《图解HTTP》</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>《HTTP/2基础教程》</t>
+  </si>
+  <si>
+    <t>《图解TCP/IP》</t>
+  </si>
+  <si>
+    <t>《HTTP权威指南》</t>
+  </si>
+  <si>
+    <t>《TCP/IP详解》</t>
+  </si>
+  <si>
+    <t>编程基础</t>
+  </si>
+  <si>
+    <t>程序设计基础
+高等数学
+算法基础
+程序员英语</t>
+  </si>
+  <si>
+    <t>《我的第一本编程书》</t>
+  </si>
+  <si>
+    <t>《程序员的数学》</t>
+  </si>
+  <si>
+    <t>《算法图解》</t>
+  </si>
+  <si>
+    <t>《啊哈！算法》</t>
+  </si>
+  <si>
+    <t>《程序员的英语》</t>
+  </si>
+  <si>
+    <t>《计算机程序设计艺术》</t>
+  </si>
+  <si>
+    <t>《Linux/UNIX系统编程手册》</t>
+  </si>
+  <si>
+    <t>《UNIX环境高级编程》</t>
+  </si>
+  <si>
+    <t>GO语言编程</t>
+  </si>
+  <si>
+    <t>Go语言规范
+Go语言命令
+Go语言基础编程
+Go语言并发编程</t>
+  </si>
+  <si>
+    <t>Go语言规范文档（英文）：https://golang.google.cn/ref/spec</t>
+  </si>
+  <si>
+    <t>Go语言命令文档（英文）：https://golang.google.cn/cmd/go</t>
+  </si>
+  <si>
+    <t>Go程序编辑器和IDE（英文）：https://golang.google.cn/doc/editors.html</t>
+  </si>
+  <si>
+    <t>Go语言wiki（英文）：https://github.com/golang/go/wiki</t>
+  </si>
+  <si>
+    <t>《Go语言核心技术36讲》：https://time.geekbang.org/column/intro/112</t>
+  </si>
+  <si>
+    <t>《Go并发编程实战》第一版</t>
+  </si>
+  <si>
+    <t>《Go命令教程》：https://github.com/hyper0x/go_command_tutorial</t>
+  </si>
+  <si>
+    <t>《Go语言第一课》：http://www.imooc.com/learn/345</t>
+  </si>
+  <si>
+    <t>Go语言数据类型使用进阶
+Go语言标准库使用进阶
+Go语言并发编程进阶
+与前述的各种基础知识的融会贯通</t>
+  </si>
+  <si>
+    <t>Effective Go（英文）：https://golang.google.cn/doc/effective_go.html</t>
+  </si>
+  <si>
+    <t>Go语言内存模型（英文）：https://golang.google.cn/ref/mem</t>
+  </si>
+  <si>
+    <t>Go程序诊断（英文）：https://golang.google.cn/doc/diagnostics.html</t>
+  </si>
+  <si>
+    <t>《Go并发编程实战》第二版</t>
+  </si>
+  <si>
+    <t>《Go语言实战》</t>
+  </si>
+  <si>
+    <t>进阶方法总结</t>
+  </si>
+  <si>
+    <t>打好基础，完善知识体系
+研读官方文档和源码
+学习明星项目中的代码和文档
+多读书，读好书
+积极交流，进行思想碰撞和升华</t>
+  </si>
+  <si>
+    <t>打好基础，不断补充知识缺漏</t>
+  </si>
+  <si>
+    <t>研读go语言官方文档和源码</t>
+  </si>
+  <si>
+    <t>学习明星项目中的代码和文档</t>
+  </si>
+  <si>
+    <t>多读书，读好书（所有相关技术书，不只Go语言）</t>
+  </si>
+  <si>
+    <t>积极练习、积极讨论、积极加入技术组织和社区</t>
+  </si>
+  <si>
+    <t>积极发布和开源自己的程序，积极通过代码和软件项目交友</t>
+  </si>
+  <si>
+    <t>积极公开自己的想法，并拥抱和吸纳不用的想法</t>
+  </si>
+  <si>
+    <t>尽量多的在公开场合发声，包括公开讨论、演讲、培训和咨询</t>
   </si>
 </sst>
 </file>
@@ -68,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -99,9 +277,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,65 +391,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,21 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -209,38 +419,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -257,31 +435,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,25 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,90 +603,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -466,11 +644,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +725,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,26 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,32 +768,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +952,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,17 +1319,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -1196,13 +1429,631 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="27">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A61"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B61"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
